--- a/2022/SAMSUNG/OCTOBER/03.10.2022/SAMSUNG Bank Statement OCT-2022.xlsx
+++ b/2022/SAMSUNG/OCTOBER/03.10.2022/SAMSUNG Bank Statement OCT-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -3253,6 +3253,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="42" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3437,9 +3440,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="42" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3916,33 +3916,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="383"/>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
+      <c r="A1" s="384"/>
+      <c r="B1" s="384"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="381" t="s">
+      <c r="A2" s="385"/>
+      <c r="B2" s="382" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="381"/>
-      <c r="D2" s="381"/>
-      <c r="E2" s="381"/>
+      <c r="C2" s="382"/>
+      <c r="D2" s="382"/>
+      <c r="E2" s="382"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="384"/>
-      <c r="B3" s="382" t="s">
+      <c r="A3" s="385"/>
+      <c r="B3" s="383" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="382"/>
-      <c r="D3" s="382"/>
-      <c r="E3" s="382"/>
+      <c r="C3" s="383"/>
+      <c r="D3" s="383"/>
+      <c r="E3" s="383"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="384"/>
+      <c r="A4" s="385"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -3960,7 +3960,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="384"/>
+      <c r="A5" s="385"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -3978,7 +3978,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="384"/>
+      <c r="A6" s="385"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -3990,7 +3990,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="384"/>
+      <c r="A7" s="385"/>
       <c r="B7" s="26" t="s">
         <v>40</v>
       </c>
@@ -4009,7 +4009,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="384"/>
+      <c r="A8" s="385"/>
       <c r="B8" s="26" t="s">
         <v>41</v>
       </c>
@@ -4028,7 +4028,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="384"/>
+      <c r="A9" s="385"/>
       <c r="B9" s="26" t="s">
         <v>43</v>
       </c>
@@ -4047,7 +4047,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="384"/>
+      <c r="A10" s="385"/>
       <c r="B10" s="26" t="s">
         <v>44</v>
       </c>
@@ -4066,7 +4066,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="384"/>
+      <c r="A11" s="385"/>
       <c r="B11" s="26" t="s">
         <v>45</v>
       </c>
@@ -4085,7 +4085,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="384"/>
+      <c r="A12" s="385"/>
       <c r="B12" s="26" t="s">
         <v>46</v>
       </c>
@@ -4104,7 +4104,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="384"/>
+      <c r="A13" s="385"/>
       <c r="B13" s="26" t="s">
         <v>47</v>
       </c>
@@ -4123,7 +4123,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="384"/>
+      <c r="A14" s="385"/>
       <c r="B14" s="26" t="s">
         <v>48</v>
       </c>
@@ -4142,7 +4142,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="384"/>
+      <c r="A15" s="385"/>
       <c r="B15" s="26" t="s">
         <v>49</v>
       </c>
@@ -4161,7 +4161,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="384"/>
+      <c r="A16" s="385"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -4174,7 +4174,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="384"/>
+      <c r="A17" s="385"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4187,7 +4187,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="384"/>
+      <c r="A18" s="385"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4200,7 +4200,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="384"/>
+      <c r="A19" s="385"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4213,7 +4213,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="384"/>
+      <c r="A20" s="385"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4226,7 +4226,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="384"/>
+      <c r="A21" s="385"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4239,7 +4239,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="384"/>
+      <c r="A22" s="385"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4252,7 +4252,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="384"/>
+      <c r="A23" s="385"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4265,7 +4265,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="384"/>
+      <c r="A24" s="385"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4278,7 +4278,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="384"/>
+      <c r="A25" s="385"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4291,7 +4291,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="384"/>
+      <c r="A26" s="385"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4304,7 +4304,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="384"/>
+      <c r="A27" s="385"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4317,7 +4317,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="384"/>
+      <c r="A28" s="385"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4330,7 +4330,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="384"/>
+      <c r="A29" s="385"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4343,7 +4343,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="384"/>
+      <c r="A30" s="385"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4356,7 +4356,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="384"/>
+      <c r="A31" s="385"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4369,7 +4369,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="384"/>
+      <c r="A32" s="385"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4382,7 +4382,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="384"/>
+      <c r="A33" s="385"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4395,7 +4395,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="384"/>
+      <c r="A34" s="385"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4408,7 +4408,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="384"/>
+      <c r="A35" s="385"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4421,7 +4421,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="384"/>
+      <c r="A36" s="385"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4434,7 +4434,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="384"/>
+      <c r="A37" s="385"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4447,7 +4447,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="384"/>
+      <c r="A38" s="385"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4460,7 +4460,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="384"/>
+      <c r="A39" s="385"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4473,7 +4473,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="384"/>
+      <c r="A40" s="385"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4486,7 +4486,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="384"/>
+      <c r="A41" s="385"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4499,7 +4499,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="384"/>
+      <c r="A42" s="385"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4512,7 +4512,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="384"/>
+      <c r="A43" s="385"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4525,7 +4525,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="384"/>
+      <c r="A44" s="385"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4538,7 +4538,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="384"/>
+      <c r="A45" s="385"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4551,7 +4551,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="384"/>
+      <c r="A46" s="385"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4564,7 +4564,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="384"/>
+      <c r="A47" s="385"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4577,7 +4577,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="384"/>
+      <c r="A48" s="385"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4590,7 +4590,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="384"/>
+      <c r="A49" s="385"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4603,7 +4603,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="384"/>
+      <c r="A50" s="385"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4616,7 +4616,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="384"/>
+      <c r="A51" s="385"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4629,7 +4629,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="384"/>
+      <c r="A52" s="385"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4642,7 +4642,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="384"/>
+      <c r="A53" s="385"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4655,7 +4655,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="384"/>
+      <c r="A54" s="385"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4668,7 +4668,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="384"/>
+      <c r="A55" s="385"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4680,7 +4680,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="384"/>
+      <c r="A56" s="385"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4692,7 +4692,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="384"/>
+      <c r="A57" s="385"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4704,7 +4704,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="384"/>
+      <c r="A58" s="385"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4716,7 +4716,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="384"/>
+      <c r="A59" s="385"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4728,7 +4728,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="384"/>
+      <c r="A60" s="385"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4740,7 +4740,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="384"/>
+      <c r="A61" s="385"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4752,7 +4752,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="384"/>
+      <c r="A62" s="385"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4764,7 +4764,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="384"/>
+      <c r="A63" s="385"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -4776,7 +4776,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="384"/>
+      <c r="A64" s="385"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -4788,7 +4788,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="384"/>
+      <c r="A65" s="385"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4800,7 +4800,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="384"/>
+      <c r="A66" s="385"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -4812,7 +4812,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="384"/>
+      <c r="A67" s="385"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -4824,7 +4824,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="384"/>
+      <c r="A68" s="385"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -4836,7 +4836,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="384"/>
+      <c r="A69" s="385"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -4848,7 +4848,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="384"/>
+      <c r="A70" s="385"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -4860,7 +4860,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="384"/>
+      <c r="A71" s="385"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -4872,7 +4872,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="384"/>
+      <c r="A72" s="385"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -4884,7 +4884,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="384"/>
+      <c r="A73" s="385"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -4896,7 +4896,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="384"/>
+      <c r="A74" s="385"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -4908,7 +4908,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="384"/>
+      <c r="A75" s="385"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -4920,7 +4920,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="384"/>
+      <c r="A76" s="385"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -4932,7 +4932,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="384"/>
+      <c r="A77" s="385"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -4944,7 +4944,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="384"/>
+      <c r="A78" s="385"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -4956,7 +4956,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="384"/>
+      <c r="A79" s="385"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -4968,7 +4968,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="384"/>
+      <c r="A80" s="385"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -4980,7 +4980,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="384"/>
+      <c r="A81" s="385"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -4992,7 +4992,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="384"/>
+      <c r="A82" s="385"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -5004,7 +5004,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="384"/>
+      <c r="A83" s="385"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -5061,33 +5061,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A1" s="383"/>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
+      <c r="A1" s="384"/>
+      <c r="B1" s="384"/>
+      <c r="C1" s="384"/>
+      <c r="D1" s="384"/>
+      <c r="E1" s="384"/>
+      <c r="F1" s="384"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="384"/>
-      <c r="B2" s="381" t="s">
+      <c r="A2" s="385"/>
+      <c r="B2" s="382" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="381"/>
-      <c r="D2" s="381"/>
-      <c r="E2" s="381"/>
+      <c r="C2" s="382"/>
+      <c r="D2" s="382"/>
+      <c r="E2" s="382"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A3" s="384"/>
-      <c r="B3" s="382" t="s">
+      <c r="A3" s="385"/>
+      <c r="B3" s="383" t="s">
         <v>223</v>
       </c>
-      <c r="C3" s="382"/>
-      <c r="D3" s="382"/>
-      <c r="E3" s="382"/>
+      <c r="C3" s="383"/>
+      <c r="D3" s="383"/>
+      <c r="E3" s="383"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A4" s="384"/>
+      <c r="A4" s="385"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5105,7 +5105,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="384"/>
+      <c r="A5" s="385"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5123,7 +5123,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="384"/>
+      <c r="A6" s="385"/>
       <c r="B6" s="26"/>
       <c r="C6" s="210"/>
       <c r="D6" s="210"/>
@@ -5135,7 +5135,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="384"/>
+      <c r="A7" s="385"/>
       <c r="B7" s="26" t="s">
         <v>231</v>
       </c>
@@ -5155,7 +5155,7 @@
       <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="384"/>
+      <c r="A8" s="385"/>
       <c r="B8" s="26" t="s">
         <v>233</v>
       </c>
@@ -5175,7 +5175,7 @@
       <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="384"/>
+      <c r="A9" s="385"/>
       <c r="B9" s="26"/>
       <c r="C9" s="210"/>
       <c r="D9" s="210"/>
@@ -5189,7 +5189,7 @@
       <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="384"/>
+      <c r="A10" s="385"/>
       <c r="B10" s="26"/>
       <c r="C10" s="212"/>
       <c r="D10" s="212"/>
@@ -5203,7 +5203,7 @@
       <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="384"/>
+      <c r="A11" s="385"/>
       <c r="B11" s="26"/>
       <c r="C11" s="210"/>
       <c r="D11" s="210"/>
@@ -5217,7 +5217,7 @@
       <c r="I11" s="21"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="384"/>
+      <c r="A12" s="385"/>
       <c r="B12" s="26"/>
       <c r="C12" s="210"/>
       <c r="D12" s="210"/>
@@ -5231,7 +5231,7 @@
       <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="384"/>
+      <c r="A13" s="385"/>
       <c r="B13" s="26"/>
       <c r="C13" s="210"/>
       <c r="D13" s="210"/>
@@ -5245,7 +5245,7 @@
       <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="384"/>
+      <c r="A14" s="385"/>
       <c r="B14" s="26"/>
       <c r="C14" s="210"/>
       <c r="D14" s="210"/>
@@ -5259,7 +5259,7 @@
       <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="384"/>
+      <c r="A15" s="385"/>
       <c r="B15" s="26"/>
       <c r="C15" s="210"/>
       <c r="D15" s="210"/>
@@ -5273,7 +5273,7 @@
       <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="384"/>
+      <c r="A16" s="385"/>
       <c r="B16" s="26"/>
       <c r="C16" s="210"/>
       <c r="D16" s="210"/>
@@ -5287,7 +5287,7 @@
       <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="384"/>
+      <c r="A17" s="385"/>
       <c r="B17" s="26"/>
       <c r="C17" s="210"/>
       <c r="D17" s="210"/>
@@ -5301,7 +5301,7 @@
       <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="384"/>
+      <c r="A18" s="385"/>
       <c r="B18" s="26"/>
       <c r="C18" s="210"/>
       <c r="D18" s="210"/>
@@ -5315,7 +5315,7 @@
       <c r="I18" s="21"/>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A19" s="384"/>
+      <c r="A19" s="385"/>
       <c r="B19" s="26"/>
       <c r="C19" s="210"/>
       <c r="D19" s="212"/>
@@ -5329,7 +5329,7 @@
       <c r="I19" s="21"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="384"/>
+      <c r="A20" s="385"/>
       <c r="B20" s="26"/>
       <c r="C20" s="210"/>
       <c r="D20" s="210"/>
@@ -5343,7 +5343,7 @@
       <c r="I20" s="21"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="384"/>
+      <c r="A21" s="385"/>
       <c r="B21" s="26"/>
       <c r="C21" s="210"/>
       <c r="D21" s="210"/>
@@ -5357,7 +5357,7 @@
       <c r="I21" s="21"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="384"/>
+      <c r="A22" s="385"/>
       <c r="B22" s="26"/>
       <c r="C22" s="210"/>
       <c r="D22" s="212"/>
@@ -5371,7 +5371,7 @@
       <c r="I22" s="21"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="384"/>
+      <c r="A23" s="385"/>
       <c r="B23" s="26"/>
       <c r="C23" s="210"/>
       <c r="D23" s="210"/>
@@ -5385,7 +5385,7 @@
       <c r="I23" s="21"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="384"/>
+      <c r="A24" s="385"/>
       <c r="B24" s="26"/>
       <c r="C24" s="210"/>
       <c r="D24" s="212"/>
@@ -5399,7 +5399,7 @@
       <c r="I24" s="21"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="384"/>
+      <c r="A25" s="385"/>
       <c r="B25" s="26"/>
       <c r="C25" s="210"/>
       <c r="D25" s="210"/>
@@ -5413,7 +5413,7 @@
       <c r="I25" s="21"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="384"/>
+      <c r="A26" s="385"/>
       <c r="B26" s="26"/>
       <c r="C26" s="210"/>
       <c r="D26" s="210"/>
@@ -5427,7 +5427,7 @@
       <c r="I26" s="21"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="384"/>
+      <c r="A27" s="385"/>
       <c r="B27" s="26"/>
       <c r="C27" s="210"/>
       <c r="D27" s="210"/>
@@ -5441,7 +5441,7 @@
       <c r="I27" s="21"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="384"/>
+      <c r="A28" s="385"/>
       <c r="B28" s="26"/>
       <c r="C28" s="210"/>
       <c r="D28" s="212"/>
@@ -5455,7 +5455,7 @@
       <c r="I28" s="21"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="384"/>
+      <c r="A29" s="385"/>
       <c r="B29" s="26"/>
       <c r="C29" s="210"/>
       <c r="D29" s="210"/>
@@ -5463,13 +5463,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F29" s="385"/>
-      <c r="G29" s="386"/>
+      <c r="F29" s="386"/>
+      <c r="G29" s="387"/>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="384"/>
+      <c r="A30" s="385"/>
       <c r="B30" s="26"/>
       <c r="C30" s="210"/>
       <c r="D30" s="210"/>
@@ -5483,7 +5483,7 @@
       <c r="I30" s="21"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="384"/>
+      <c r="A31" s="385"/>
       <c r="B31" s="26"/>
       <c r="C31" s="210"/>
       <c r="D31" s="210"/>
@@ -5497,7 +5497,7 @@
       <c r="I31" s="21"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="384"/>
+      <c r="A32" s="385"/>
       <c r="B32" s="26"/>
       <c r="C32" s="210"/>
       <c r="D32" s="210"/>
@@ -5511,7 +5511,7 @@
       <c r="I32" s="21"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="384"/>
+      <c r="A33" s="385"/>
       <c r="B33" s="26"/>
       <c r="C33" s="210"/>
       <c r="D33" s="212"/>
@@ -5525,7 +5525,7 @@
       <c r="I33" s="21"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="384"/>
+      <c r="A34" s="385"/>
       <c r="B34" s="26"/>
       <c r="C34" s="210"/>
       <c r="D34" s="210"/>
@@ -5539,7 +5539,7 @@
       <c r="I34" s="21"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="384"/>
+      <c r="A35" s="385"/>
       <c r="B35" s="26"/>
       <c r="C35" s="210"/>
       <c r="D35" s="210"/>
@@ -5553,7 +5553,7 @@
       <c r="I35" s="21"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="384"/>
+      <c r="A36" s="385"/>
       <c r="B36" s="26"/>
       <c r="C36" s="210"/>
       <c r="D36" s="210"/>
@@ -5567,7 +5567,7 @@
       <c r="I36" s="21"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="384"/>
+      <c r="A37" s="385"/>
       <c r="B37" s="26"/>
       <c r="C37" s="210"/>
       <c r="D37" s="210"/>
@@ -5581,7 +5581,7 @@
       <c r="I37" s="21"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="384"/>
+      <c r="A38" s="385"/>
       <c r="B38" s="26"/>
       <c r="C38" s="210"/>
       <c r="D38" s="210"/>
@@ -5595,7 +5595,7 @@
       <c r="I38" s="21"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="384"/>
+      <c r="A39" s="385"/>
       <c r="B39" s="26"/>
       <c r="C39" s="210"/>
       <c r="D39" s="210"/>
@@ -5609,7 +5609,7 @@
       <c r="I39" s="21"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="384"/>
+      <c r="A40" s="385"/>
       <c r="B40" s="26"/>
       <c r="C40" s="210"/>
       <c r="D40" s="210"/>
@@ -5623,7 +5623,7 @@
       <c r="I40" s="21"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="384"/>
+      <c r="A41" s="385"/>
       <c r="B41" s="26"/>
       <c r="C41" s="210"/>
       <c r="D41" s="210"/>
@@ -5637,7 +5637,7 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="384"/>
+      <c r="A42" s="385"/>
       <c r="B42" s="26"/>
       <c r="C42" s="210"/>
       <c r="D42" s="210"/>
@@ -5651,7 +5651,7 @@
       <c r="I42" s="21"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="384"/>
+      <c r="A43" s="385"/>
       <c r="B43" s="26"/>
       <c r="C43" s="210"/>
       <c r="D43" s="210"/>
@@ -5665,7 +5665,7 @@
       <c r="I43" s="21"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="384"/>
+      <c r="A44" s="385"/>
       <c r="B44" s="26"/>
       <c r="C44" s="210"/>
       <c r="D44" s="210"/>
@@ -5679,7 +5679,7 @@
       <c r="I44" s="21"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="384"/>
+      <c r="A45" s="385"/>
       <c r="B45" s="26"/>
       <c r="C45" s="210"/>
       <c r="D45" s="210"/>
@@ -5693,7 +5693,7 @@
       <c r="I45" s="21"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="384"/>
+      <c r="A46" s="385"/>
       <c r="B46" s="26"/>
       <c r="C46" s="210"/>
       <c r="D46" s="210"/>
@@ -5707,7 +5707,7 @@
       <c r="I46" s="21"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="384"/>
+      <c r="A47" s="385"/>
       <c r="B47" s="26"/>
       <c r="C47" s="210"/>
       <c r="D47" s="210"/>
@@ -5721,7 +5721,7 @@
       <c r="I47" s="21"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="384"/>
+      <c r="A48" s="385"/>
       <c r="B48" s="26"/>
       <c r="C48" s="210"/>
       <c r="D48" s="210"/>
@@ -5735,7 +5735,7 @@
       <c r="I48" s="21"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="384"/>
+      <c r="A49" s="385"/>
       <c r="B49" s="26"/>
       <c r="C49" s="210"/>
       <c r="D49" s="210"/>
@@ -5749,7 +5749,7 @@
       <c r="I49" s="21"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="384"/>
+      <c r="A50" s="385"/>
       <c r="B50" s="26"/>
       <c r="C50" s="210"/>
       <c r="D50" s="210"/>
@@ -5763,7 +5763,7 @@
       <c r="I50" s="21"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="384"/>
+      <c r="A51" s="385"/>
       <c r="B51" s="26"/>
       <c r="C51" s="210"/>
       <c r="D51" s="210"/>
@@ -5777,7 +5777,7 @@
       <c r="I51" s="21"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="384"/>
+      <c r="A52" s="385"/>
       <c r="B52" s="26"/>
       <c r="C52" s="210"/>
       <c r="D52" s="210"/>
@@ -5791,7 +5791,7 @@
       <c r="I52" s="21"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="384"/>
+      <c r="A53" s="385"/>
       <c r="B53" s="26"/>
       <c r="C53" s="210"/>
       <c r="D53" s="210"/>
@@ -5805,7 +5805,7 @@
       <c r="I53" s="21"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="384"/>
+      <c r="A54" s="385"/>
       <c r="B54" s="26"/>
       <c r="C54" s="210"/>
       <c r="D54" s="210"/>
@@ -5819,7 +5819,7 @@
       <c r="I54" s="21"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="384"/>
+      <c r="A55" s="385"/>
       <c r="B55" s="26"/>
       <c r="C55" s="210"/>
       <c r="D55" s="210"/>
@@ -5833,7 +5833,7 @@
       <c r="I55" s="21"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="384"/>
+      <c r="A56" s="385"/>
       <c r="B56" s="26"/>
       <c r="C56" s="210"/>
       <c r="D56" s="210"/>
@@ -5847,7 +5847,7 @@
       <c r="I56" s="21"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="384"/>
+      <c r="A57" s="385"/>
       <c r="B57" s="26"/>
       <c r="C57" s="210"/>
       <c r="D57" s="210"/>
@@ -5858,7 +5858,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="384"/>
+      <c r="A58" s="385"/>
       <c r="B58" s="26"/>
       <c r="C58" s="210"/>
       <c r="D58" s="210"/>
@@ -5869,7 +5869,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="384"/>
+      <c r="A59" s="385"/>
       <c r="B59" s="26"/>
       <c r="C59" s="210"/>
       <c r="D59" s="210"/>
@@ -5880,7 +5880,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="384"/>
+      <c r="A60" s="385"/>
       <c r="B60" s="26"/>
       <c r="C60" s="210"/>
       <c r="D60" s="210"/>
@@ -5891,7 +5891,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="384"/>
+      <c r="A61" s="385"/>
       <c r="B61" s="26"/>
       <c r="C61" s="210"/>
       <c r="D61" s="210"/>
@@ -5902,7 +5902,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="384"/>
+      <c r="A62" s="385"/>
       <c r="B62" s="26"/>
       <c r="C62" s="210"/>
       <c r="D62" s="210"/>
@@ -5913,7 +5913,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="384"/>
+      <c r="A63" s="385"/>
       <c r="B63" s="26"/>
       <c r="C63" s="210"/>
       <c r="D63" s="210"/>
@@ -5924,7 +5924,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="384"/>
+      <c r="A64" s="385"/>
       <c r="B64" s="26"/>
       <c r="C64" s="210"/>
       <c r="D64" s="210"/>
@@ -5935,7 +5935,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="384"/>
+      <c r="A65" s="385"/>
       <c r="B65" s="26"/>
       <c r="C65" s="210"/>
       <c r="D65" s="210"/>
@@ -5946,7 +5946,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="384"/>
+      <c r="A66" s="385"/>
       <c r="B66" s="26"/>
       <c r="C66" s="210"/>
       <c r="D66" s="210"/>
@@ -5957,7 +5957,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="384"/>
+      <c r="A67" s="385"/>
       <c r="B67" s="26"/>
       <c r="C67" s="210"/>
       <c r="D67" s="210"/>
@@ -5968,7 +5968,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="384"/>
+      <c r="A68" s="385"/>
       <c r="B68" s="26"/>
       <c r="C68" s="210"/>
       <c r="D68" s="210"/>
@@ -5979,7 +5979,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="384"/>
+      <c r="A69" s="385"/>
       <c r="B69" s="26"/>
       <c r="C69" s="210"/>
       <c r="D69" s="210"/>
@@ -5990,7 +5990,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="384"/>
+      <c r="A70" s="385"/>
       <c r="B70" s="26"/>
       <c r="C70" s="210"/>
       <c r="D70" s="210"/>
@@ -6001,7 +6001,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="384"/>
+      <c r="A71" s="385"/>
       <c r="B71" s="26"/>
       <c r="C71" s="210"/>
       <c r="D71" s="210"/>
@@ -6012,7 +6012,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="384"/>
+      <c r="A72" s="385"/>
       <c r="B72" s="26"/>
       <c r="C72" s="210"/>
       <c r="D72" s="210"/>
@@ -6023,7 +6023,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="384"/>
+      <c r="A73" s="385"/>
       <c r="B73" s="26"/>
       <c r="C73" s="210"/>
       <c r="D73" s="210"/>
@@ -6034,7 +6034,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="384"/>
+      <c r="A74" s="385"/>
       <c r="B74" s="26"/>
       <c r="C74" s="210"/>
       <c r="D74" s="210"/>
@@ -6045,7 +6045,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="384"/>
+      <c r="A75" s="385"/>
       <c r="B75" s="26"/>
       <c r="C75" s="210"/>
       <c r="D75" s="210"/>
@@ -6056,7 +6056,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="384"/>
+      <c r="A76" s="385"/>
       <c r="B76" s="26"/>
       <c r="C76" s="210"/>
       <c r="D76" s="210"/>
@@ -6067,7 +6067,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="384"/>
+      <c r="A77" s="385"/>
       <c r="B77" s="26"/>
       <c r="C77" s="210"/>
       <c r="D77" s="210"/>
@@ -6078,7 +6078,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="384"/>
+      <c r="A78" s="385"/>
       <c r="B78" s="26"/>
       <c r="C78" s="210"/>
       <c r="D78" s="210"/>
@@ -6089,7 +6089,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="384"/>
+      <c r="A79" s="385"/>
       <c r="B79" s="26"/>
       <c r="C79" s="210"/>
       <c r="D79" s="210"/>
@@ -6101,7 +6101,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="384"/>
+      <c r="A80" s="385"/>
       <c r="B80" s="26"/>
       <c r="C80" s="210"/>
       <c r="D80" s="210"/>
@@ -6113,7 +6113,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="384"/>
+      <c r="A81" s="385"/>
       <c r="B81" s="26"/>
       <c r="C81" s="210"/>
       <c r="D81" s="210"/>
@@ -6125,7 +6125,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="384"/>
+      <c r="A82" s="385"/>
       <c r="B82" s="26"/>
       <c r="C82" s="210"/>
       <c r="D82" s="210"/>
@@ -6137,7 +6137,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="384"/>
+      <c r="A83" s="385"/>
       <c r="B83" s="31"/>
       <c r="C83" s="211">
         <f>SUM(C5:C72)</f>
@@ -6201,67 +6201,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="391" t="s">
+      <c r="A1" s="392" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="391"/>
-      <c r="C1" s="391"/>
-      <c r="D1" s="391"/>
-      <c r="E1" s="391"/>
-      <c r="F1" s="391"/>
-      <c r="G1" s="391"/>
-      <c r="H1" s="391"/>
-      <c r="I1" s="391"/>
-      <c r="J1" s="391"/>
-      <c r="K1" s="391"/>
-      <c r="L1" s="391"/>
-      <c r="M1" s="391"/>
-      <c r="N1" s="391"/>
-      <c r="O1" s="391"/>
-      <c r="P1" s="391"/>
-      <c r="Q1" s="391"/>
+      <c r="B1" s="392"/>
+      <c r="C1" s="392"/>
+      <c r="D1" s="392"/>
+      <c r="E1" s="392"/>
+      <c r="F1" s="392"/>
+      <c r="G1" s="392"/>
+      <c r="H1" s="392"/>
+      <c r="I1" s="392"/>
+      <c r="J1" s="392"/>
+      <c r="K1" s="392"/>
+      <c r="L1" s="392"/>
+      <c r="M1" s="392"/>
+      <c r="N1" s="392"/>
+      <c r="O1" s="392"/>
+      <c r="P1" s="392"/>
+      <c r="Q1" s="392"/>
     </row>
     <row r="2" spans="1:24" s="59" customFormat="1" ht="18">
-      <c r="A2" s="392" t="s">
+      <c r="A2" s="393" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="392"/>
-      <c r="C2" s="392"/>
-      <c r="D2" s="392"/>
-      <c r="E2" s="392"/>
-      <c r="F2" s="392"/>
-      <c r="G2" s="392"/>
-      <c r="H2" s="392"/>
-      <c r="I2" s="392"/>
-      <c r="J2" s="392"/>
-      <c r="K2" s="392"/>
-      <c r="L2" s="392"/>
-      <c r="M2" s="392"/>
-      <c r="N2" s="392"/>
-      <c r="O2" s="392"/>
-      <c r="P2" s="392"/>
-      <c r="Q2" s="392"/>
+      <c r="B2" s="393"/>
+      <c r="C2" s="393"/>
+      <c r="D2" s="393"/>
+      <c r="E2" s="393"/>
+      <c r="F2" s="393"/>
+      <c r="G2" s="393"/>
+      <c r="H2" s="393"/>
+      <c r="I2" s="393"/>
+      <c r="J2" s="393"/>
+      <c r="K2" s="393"/>
+      <c r="L2" s="393"/>
+      <c r="M2" s="393"/>
+      <c r="N2" s="393"/>
+      <c r="O2" s="393"/>
+      <c r="P2" s="393"/>
+      <c r="Q2" s="393"/>
     </row>
     <row r="3" spans="1:24" s="60" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="393" t="s">
+      <c r="A3" s="394" t="s">
         <v>224</v>
       </c>
-      <c r="B3" s="394"/>
-      <c r="C3" s="394"/>
-      <c r="D3" s="394"/>
-      <c r="E3" s="394"/>
-      <c r="F3" s="394"/>
-      <c r="G3" s="394"/>
-      <c r="H3" s="394"/>
-      <c r="I3" s="394"/>
-      <c r="J3" s="394"/>
-      <c r="K3" s="394"/>
-      <c r="L3" s="394"/>
-      <c r="M3" s="394"/>
-      <c r="N3" s="394"/>
-      <c r="O3" s="394"/>
-      <c r="P3" s="394"/>
-      <c r="Q3" s="395"/>
+      <c r="B3" s="395"/>
+      <c r="C3" s="395"/>
+      <c r="D3" s="395"/>
+      <c r="E3" s="395"/>
+      <c r="F3" s="395"/>
+      <c r="G3" s="395"/>
+      <c r="H3" s="395"/>
+      <c r="I3" s="395"/>
+      <c r="J3" s="395"/>
+      <c r="K3" s="395"/>
+      <c r="L3" s="395"/>
+      <c r="M3" s="395"/>
+      <c r="N3" s="395"/>
+      <c r="O3" s="395"/>
+      <c r="P3" s="395"/>
+      <c r="Q3" s="396"/>
       <c r="S3" s="45"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6270,52 +6270,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="61" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="396" t="s">
+      <c r="A4" s="397" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="398" t="s">
+      <c r="B4" s="399" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="387" t="s">
+      <c r="C4" s="388" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="387" t="s">
+      <c r="D4" s="388" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="387" t="s">
+      <c r="E4" s="388" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="387" t="s">
+      <c r="F4" s="388" t="s">
         <v>176</v>
       </c>
-      <c r="G4" s="387" t="s">
+      <c r="G4" s="388" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="387" t="s">
+      <c r="H4" s="388" t="s">
         <v>100</v>
       </c>
-      <c r="I4" s="387" t="s">
+      <c r="I4" s="388" t="s">
         <v>236</v>
       </c>
-      <c r="J4" s="387" t="s">
+      <c r="J4" s="388" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="387" t="s">
+      <c r="K4" s="388" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="387" t="s">
+      <c r="L4" s="388" t="s">
         <v>90</v>
       </c>
-      <c r="M4" s="387" t="s">
+      <c r="M4" s="388" t="s">
         <v>235</v>
       </c>
-      <c r="N4" s="387" t="s">
+      <c r="N4" s="388" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="389" t="s">
+      <c r="O4" s="390" t="s">
         <v>95</v>
       </c>
-      <c r="P4" s="400" t="s">
+      <c r="P4" s="401" t="s">
         <v>187</v>
       </c>
       <c r="Q4" s="115" t="s">
@@ -6328,22 +6328,22 @@
       <c r="W4" s="63"/>
     </row>
     <row r="5" spans="1:24" s="61" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="397"/>
-      <c r="B5" s="399"/>
-      <c r="C5" s="388"/>
-      <c r="D5" s="388"/>
-      <c r="E5" s="388"/>
-      <c r="F5" s="388"/>
-      <c r="G5" s="388"/>
-      <c r="H5" s="388"/>
-      <c r="I5" s="388"/>
-      <c r="J5" s="388"/>
-      <c r="K5" s="388"/>
-      <c r="L5" s="388"/>
-      <c r="M5" s="388"/>
-      <c r="N5" s="388"/>
-      <c r="O5" s="390"/>
-      <c r="P5" s="401"/>
+      <c r="A5" s="398"/>
+      <c r="B5" s="400"/>
+      <c r="C5" s="389"/>
+      <c r="D5" s="389"/>
+      <c r="E5" s="389"/>
+      <c r="F5" s="389"/>
+      <c r="G5" s="389"/>
+      <c r="H5" s="389"/>
+      <c r="I5" s="389"/>
+      <c r="J5" s="389"/>
+      <c r="K5" s="389"/>
+      <c r="L5" s="389"/>
+      <c r="M5" s="389"/>
+      <c r="N5" s="389"/>
+      <c r="O5" s="391"/>
+      <c r="P5" s="402"/>
       <c r="Q5" s="116" t="s">
         <v>36</v>
       </c>
@@ -9277,6 +9277,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -9290,12 +9296,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9335,14 +9335,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:96" ht="19.5">
-      <c r="A1" s="409" t="s">
+      <c r="A1" s="410" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="410"/>
-      <c r="C1" s="410"/>
-      <c r="D1" s="410"/>
-      <c r="E1" s="410"/>
-      <c r="F1" s="411"/>
+      <c r="B1" s="411"/>
+      <c r="C1" s="411"/>
+      <c r="D1" s="411"/>
+      <c r="E1" s="411"/>
+      <c r="F1" s="412"/>
       <c r="G1" s="54"/>
       <c r="H1" s="132"/>
       <c r="I1" s="132"/>
@@ -9435,14 +9435,14 @@
       <c r="CR1" s="127"/>
     </row>
     <row r="2" spans="1:96" ht="15" customHeight="1">
-      <c r="A2" s="412" t="s">
+      <c r="A2" s="413" t="s">
         <v>226</v>
       </c>
-      <c r="B2" s="413"/>
-      <c r="C2" s="413"/>
-      <c r="D2" s="413"/>
-      <c r="E2" s="413"/>
-      <c r="F2" s="414"/>
+      <c r="B2" s="414"/>
+      <c r="C2" s="414"/>
+      <c r="D2" s="414"/>
+      <c r="E2" s="414"/>
+      <c r="F2" s="415"/>
       <c r="G2" s="54"/>
       <c r="H2" s="132"/>
       <c r="I2" s="132"/>
@@ -9535,14 +9535,14 @@
       <c r="CR2" s="127"/>
     </row>
     <row r="3" spans="1:96" ht="13.5" thickBot="1">
-      <c r="A3" s="415" t="s">
+      <c r="A3" s="416" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="416"/>
-      <c r="C3" s="416"/>
-      <c r="D3" s="416"/>
-      <c r="E3" s="416"/>
-      <c r="F3" s="417"/>
+      <c r="B3" s="417"/>
+      <c r="C3" s="417"/>
+      <c r="D3" s="417"/>
+      <c r="E3" s="417"/>
+      <c r="F3" s="418"/>
       <c r="G3" s="54"/>
       <c r="H3" s="132"/>
       <c r="I3" s="132"/>
@@ -12813,12 +12813,12 @@
     </row>
     <row r="35" spans="1:96" ht="13.5" thickBot="1">
       <c r="A35" s="122"/>
-      <c r="B35" s="406" t="s">
+      <c r="B35" s="407" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="406"/>
-      <c r="D35" s="406"/>
-      <c r="E35" s="406"/>
+      <c r="C35" s="407"/>
+      <c r="D35" s="407"/>
+      <c r="E35" s="407"/>
       <c r="F35" s="123"/>
       <c r="G35" s="128"/>
       <c r="H35" s="129"/>
@@ -13677,9 +13677,9 @@
       <c r="D43" s="188"/>
       <c r="E43" s="159"/>
       <c r="F43" s="123"/>
-      <c r="G43" s="407"/>
-      <c r="H43" s="407"/>
-      <c r="I43" s="407"/>
+      <c r="G43" s="408"/>
+      <c r="H43" s="408"/>
+      <c r="I43" s="408"/>
       <c r="J43" s="54"/>
       <c r="K43" s="132"/>
       <c r="L43" s="54"/>
@@ -19152,11 +19152,11 @@
       <c r="CR90" s="127"/>
     </row>
     <row r="91" spans="1:96" ht="13.5" thickBot="1">
-      <c r="A91" s="404" t="s">
+      <c r="A91" s="405" t="s">
         <v>25</v>
       </c>
-      <c r="B91" s="405"/>
-      <c r="C91" s="408"/>
+      <c r="B91" s="406"/>
+      <c r="C91" s="409"/>
       <c r="D91" s="191">
         <f>SUM(D37:D90)</f>
         <v>4797221</v>
@@ -19360,11 +19360,11 @@
       <c r="CR92" s="127"/>
     </row>
     <row r="93" spans="1:96" ht="13.5" thickBot="1">
-      <c r="A93" s="404" t="s">
+      <c r="A93" s="405" t="s">
         <v>26</v>
       </c>
-      <c r="B93" s="405"/>
-      <c r="C93" s="405"/>
+      <c r="B93" s="406"/>
+      <c r="C93" s="406"/>
       <c r="D93" s="191">
         <f>D91+L93</f>
         <v>4797221</v>
@@ -19570,11 +19570,11 @@
       <c r="CR94" s="127"/>
     </row>
     <row r="95" spans="1:96" ht="15.75">
-      <c r="A95" s="402" t="s">
+      <c r="A95" s="403" t="s">
         <v>209</v>
       </c>
-      <c r="B95" s="402"/>
-      <c r="C95" s="402"/>
+      <c r="B95" s="403"/>
+      <c r="C95" s="403"/>
       <c r="D95" s="363" t="s">
         <v>215</v>
       </c>
@@ -20194,11 +20194,11 @@
       <c r="CR100" s="127"/>
     </row>
     <row r="101" spans="1:96" s="46" customFormat="1" ht="15.75">
-      <c r="A101" s="403" t="s">
+      <c r="A101" s="404" t="s">
         <v>210</v>
       </c>
-      <c r="B101" s="403"/>
-      <c r="C101" s="403"/>
+      <c r="B101" s="404"/>
+      <c r="C101" s="404"/>
       <c r="D101" s="363" t="s">
         <v>215</v>
       </c>
@@ -20453,11 +20453,11 @@
       <c r="W105" s="54"/>
     </row>
     <row r="106" spans="1:96" s="127" customFormat="1" ht="15.75">
-      <c r="A106" s="403" t="s">
+      <c r="A106" s="404" t="s">
         <v>217</v>
       </c>
-      <c r="B106" s="403"/>
-      <c r="C106" s="403"/>
+      <c r="B106" s="404"/>
+      <c r="C106" s="404"/>
       <c r="D106" s="363" t="s">
         <v>215</v>
       </c>
@@ -29592,8 +29592,8 @@
   </sheetPr>
   <dimension ref="A1:G213"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -29609,46 +29609,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25">
-      <c r="A1" s="418" t="s">
+      <c r="A1" s="419" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="419"/>
-      <c r="C1" s="419"/>
-      <c r="D1" s="419"/>
-      <c r="E1" s="420"/>
+      <c r="B1" s="420"/>
+      <c r="C1" s="420"/>
+      <c r="D1" s="420"/>
+      <c r="E1" s="421"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" ht="20.25">
-      <c r="A2" s="427" t="s">
+      <c r="A2" s="428" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="428"/>
-      <c r="C2" s="428"/>
-      <c r="D2" s="428"/>
-      <c r="E2" s="429"/>
+      <c r="B2" s="429"/>
+      <c r="C2" s="429"/>
+      <c r="D2" s="429"/>
+      <c r="E2" s="430"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" ht="23.25">
-      <c r="A3" s="421" t="s">
+      <c r="A3" s="422" t="s">
         <v>234</v>
       </c>
-      <c r="B3" s="422"/>
-      <c r="C3" s="422"/>
-      <c r="D3" s="422"/>
-      <c r="E3" s="423"/>
+      <c r="B3" s="423"/>
+      <c r="C3" s="423"/>
+      <c r="D3" s="423"/>
+      <c r="E3" s="424"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7" ht="23.25">
-      <c r="A4" s="430" t="s">
+      <c r="A4" s="431" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="431"/>
-      <c r="C4" s="431"/>
-      <c r="D4" s="431"/>
-      <c r="E4" s="432"/>
+      <c r="B4" s="432"/>
+      <c r="C4" s="432"/>
+      <c r="D4" s="432"/>
+      <c r="E4" s="433"/>
       <c r="F4" s="5"/>
       <c r="G4" s="40"/>
     </row>
@@ -29843,13 +29843,13 @@
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:7" ht="23.25" thickBot="1">
-      <c r="A19" s="424" t="s">
+      <c r="A19" s="425" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="425"/>
-      <c r="C19" s="425"/>
-      <c r="D19" s="425"/>
-      <c r="E19" s="426"/>
+      <c r="B19" s="426"/>
+      <c r="C19" s="426"/>
+      <c r="D19" s="426"/>
+      <c r="E19" s="427"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
     </row>
@@ -30998,7 +30998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -31015,11 +31015,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" thickBot="1">
-      <c r="A1" s="433" t="s">
+      <c r="A1" s="434" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="434"/>
-      <c r="C1" s="443">
+      <c r="B1" s="435"/>
+      <c r="C1" s="381">
         <f>C73</f>
         <v>44200</v>
       </c>
@@ -31210,11 +31210,11 @@
       <c r="C15" s="374"/>
       <c r="D15" s="24"/>
       <c r="E15" s="59"/>
-      <c r="F15" s="440" t="s">
+      <c r="F15" s="441" t="s">
         <v>228</v>
       </c>
-      <c r="G15" s="441"/>
-      <c r="H15" s="442"/>
+      <c r="G15" s="442"/>
+      <c r="H15" s="443"/>
     </row>
     <row r="16" spans="1:8" ht="14.25">
       <c r="A16" s="24"/>
@@ -31222,11 +31222,11 @@
       <c r="C16" s="374"/>
       <c r="D16" s="24"/>
       <c r="E16" s="59"/>
-      <c r="F16" s="437" t="s">
+      <c r="F16" s="438" t="s">
         <v>154</v>
       </c>
-      <c r="G16" s="438"/>
-      <c r="H16" s="439"/>
+      <c r="G16" s="439"/>
+      <c r="H16" s="440"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="24"/>
@@ -31440,11 +31440,11 @@
       <c r="C38" s="374"/>
       <c r="D38" s="24"/>
       <c r="E38" s="204"/>
-      <c r="F38" s="440" t="s">
+      <c r="F38" s="441" t="s">
         <v>201</v>
       </c>
-      <c r="G38" s="441"/>
-      <c r="H38" s="442"/>
+      <c r="G38" s="442"/>
+      <c r="H38" s="443"/>
     </row>
     <row r="39" spans="1:8" ht="14.25">
       <c r="A39" s="24"/>
@@ -31452,11 +31452,11 @@
       <c r="C39" s="374"/>
       <c r="D39" s="24"/>
       <c r="E39" s="204"/>
-      <c r="F39" s="437" t="s">
+      <c r="F39" s="438" t="s">
         <v>154</v>
       </c>
-      <c r="G39" s="438"/>
-      <c r="H39" s="439"/>
+      <c r="G39" s="439"/>
+      <c r="H39" s="440"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="24"/>
@@ -31823,10 +31823,10 @@
       <c r="E72" s="268"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="435" t="s">
+      <c r="A73" s="436" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="436"/>
+      <c r="B73" s="437"/>
       <c r="C73" s="253">
         <f>SUM(C4:C72)</f>
         <v>44200</v>
